--- a/biology/Médecine/Système_de_santé_belge/Système_de_santé_belge.xlsx
+++ b/biology/Médecine/Système_de_santé_belge/Système_de_santé_belge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_sant%C3%A9_belge</t>
+          <t>Système_de_santé_belge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de santé de la Belgique est l'organisation que les services du pays accorde aux soins, à leur dispensation et leur prise en charge socio-économique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_de_sant%C3%A9_belge</t>
+          <t>Système_de_santé_belge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Francophones
-Cliniques universitaires Saint-Luc (Bruxelles), lié à l'UCLouvain
-CHU UCLouvain Namur (Mont-Godinne, Dinant et Salzinnes), appartenant à l'UCLouvain[1]
-Hôpital Universitaire Erasme (Bruxelles), appartenant à l'ULB[2]
-CHU de Liège (comprend plusieurs sites dans l'agglomération de Liège), appartenant à l'Université de Liège
-Néerlandophones
-UZ Leuven (Louvain), appartenant à la KU Leuven[3]
-UZ Antwerpen (Anvers), appartenant à l'UA[4]
-UZ Brussel (Jette), appartenant à la VUB[5]
-UZ Gent (Gand), appartenant à l'UGent[6]</t>
+          <t>Francophones</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cliniques universitaires Saint-Luc (Bruxelles), lié à l'UCLouvain
+CHU UCLouvain Namur (Mont-Godinne, Dinant et Salzinnes), appartenant à l'UCLouvain
+Hôpital Universitaire Erasme (Bruxelles), appartenant à l'ULB
+CHU de Liège (comprend plusieurs sites dans l'agglomération de Liège), appartenant à l'Université de Liège</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Système_de_santé_belge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syst%C3%A8me_de_sant%C3%A9_belge</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Centres hospitaliers universitaires</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Néerlandophones</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>UZ Leuven (Louvain), appartenant à la KU Leuven
+UZ Antwerpen (Anvers), appartenant à l'UA
+UZ Brussel (Jette), appartenant à la VUB
+UZ Gent (Gand), appartenant à l'UGent</t>
         </is>
       </c>
     </row>
